--- a/2025/missing_data_2025.xlsx
+++ b/2025/missing_data_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F485"/>
+  <dimension ref="A1:F463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -502,11 +502,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>X</t>
@@ -520,15 +532,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>X</t>
@@ -542,7 +562,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -572,7 +592,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -602,7 +622,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -632,15 +652,23 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>X</t>
@@ -654,15 +682,23 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>X</t>
@@ -676,20 +712,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -698,15 +726,23 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>X</t>
@@ -720,12 +756,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -734,15 +786,23 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>X</t>
@@ -756,15 +816,23 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>X</t>
@@ -778,15 +846,23 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>X</t>
@@ -800,7 +876,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -830,20 +906,12 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -852,15 +920,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>X</t>
@@ -874,15 +950,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>X</t>
@@ -896,7 +980,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -926,11 +1010,23 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>X</t>
@@ -944,15 +1040,23 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1995</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>X</t>
@@ -966,7 +1070,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -996,7 +1100,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1026,7 +1130,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1056,7 +1160,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1086,7 +1190,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1116,7 +1220,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1146,7 +1250,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1176,7 +1280,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1206,7 +1310,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1236,7 +1340,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1250,7 +1354,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1280,7 +1384,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1310,7 +1414,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1340,7 +1444,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1370,7 +1474,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1400,7 +1504,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1430,12 +1534,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+        <v>2001</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1444,7 +1564,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1474,7 +1594,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1504,28 +1624,12 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2001</v>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1534,7 +1638,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1564,7 +1668,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1594,7 +1698,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1624,7 +1728,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1654,7 +1758,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1684,7 +1788,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1714,7 +1818,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1744,7 +1848,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1774,7 +1878,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1804,7 +1908,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1834,7 +1938,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1864,7 +1968,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
@@ -1878,7 +1982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1908,7 +2012,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1938,7 +2042,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1968,7 +2072,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1998,7 +2102,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2028,7 +2132,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2058,7 +2162,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2088,7 +2192,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2118,7 +2222,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2148,12 +2252,28 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2001</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+        <v>2002</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2162,7 +2282,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2192,7 +2312,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2222,7 +2342,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2252,7 +2372,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2282,7 +2402,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2312,7 +2432,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2342,7 +2462,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2372,7 +2492,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2402,28 +2522,12 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2003</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2432,7 +2536,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2462,7 +2566,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2492,12 +2596,28 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2002</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+        <v>2003</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2506,7 +2626,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2536,7 +2656,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2566,7 +2686,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2596,7 +2716,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2626,7 +2746,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2656,7 +2776,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2686,7 +2806,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2716,7 +2836,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2746,7 +2866,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2776,7 +2896,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2806,7 +2926,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2836,7 +2956,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2866,7 +2986,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2896,7 +3016,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2926,7 +3046,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2956,28 +3076,12 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2003</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2004</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2986,7 +3090,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3016,7 +3120,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3046,7 +3150,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
@@ -3060,7 +3164,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3090,7 +3194,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3120,7 +3224,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3150,7 +3254,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3180,7 +3284,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3210,7 +3314,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3240,7 +3344,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3270,7 +3374,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3300,7 +3404,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3330,7 +3434,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3360,7 +3464,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3390,7 +3494,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3420,7 +3524,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3450,7 +3554,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3480,7 +3584,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3510,7 +3614,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3540,7 +3644,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3570,7 +3674,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3600,7 +3704,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
@@ -3614,7 +3718,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3644,7 +3748,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3674,7 +3778,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
@@ -3688,7 +3792,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3718,7 +3822,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3748,28 +3852,12 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2004</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3778,7 +3866,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3808,7 +3896,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3838,18 +3926,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2004</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2005</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
           <t>X</t>
@@ -3868,7 +3948,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3898,7 +3978,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3928,7 +4008,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3958,7 +4038,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3988,7 +4068,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -4018,7 +4098,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4048,7 +4128,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4078,7 +4158,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4108,7 +4188,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4138,7 +4218,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4168,7 +4248,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -4198,7 +4278,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4228,12 +4308,28 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2005</v>
-      </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
+        <v>2006</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4242,7 +4338,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -4272,7 +4368,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -4302,7 +4398,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
@@ -4316,7 +4412,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -4346,7 +4442,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -4376,7 +4472,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
@@ -4390,7 +4486,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4420,7 +4516,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4450,10 +4546,18 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2005</v>
-      </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
+        <v>2006</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
           <t>X</t>
@@ -4472,7 +4576,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4502,7 +4606,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4532,7 +4636,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4562,7 +4666,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4592,7 +4696,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4622,7 +4726,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4652,7 +4756,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4682,7 +4786,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4712,7 +4816,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -4742,7 +4846,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4772,7 +4876,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -4802,7 +4906,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -4832,7 +4936,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4862,7 +4966,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4892,7 +4996,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4922,7 +5026,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
@@ -4936,7 +5040,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4966,7 +5070,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4996,12 +5100,28 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2006</v>
-      </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
+        <v>2007</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5010,7 +5130,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -5040,7 +5160,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -5070,7 +5190,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -5100,7 +5220,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -5130,7 +5250,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -5160,7 +5280,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -5190,7 +5310,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -5220,7 +5340,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -5250,7 +5370,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -5280,7 +5400,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -5310,7 +5430,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -5340,7 +5460,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -5370,7 +5490,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -5400,7 +5520,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -5430,7 +5550,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -5460,7 +5580,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -5490,7 +5610,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -5520,7 +5640,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5550,7 +5670,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
@@ -5564,7 +5684,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5594,7 +5714,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -5624,7 +5744,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -5654,7 +5774,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -5684,7 +5804,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5714,7 +5834,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5744,7 +5864,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -5774,7 +5894,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5804,7 +5924,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5834,7 +5954,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5864,7 +5984,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5894,7 +6014,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5924,7 +6044,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -5954,7 +6074,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5984,7 +6104,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -6014,7 +6134,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -6044,7 +6164,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -6074,7 +6194,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -6104,7 +6224,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -6134,7 +6254,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -6164,7 +6284,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -6194,7 +6314,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr"/>
@@ -6208,7 +6328,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -6238,7 +6358,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -6268,7 +6388,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -6298,7 +6418,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -6328,7 +6448,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -6358,7 +6478,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -6388,7 +6508,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -6418,7 +6538,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -6448,7 +6568,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -6478,7 +6598,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -6508,7 +6628,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -6538,28 +6658,12 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2008</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2009</v>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6568,7 +6672,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -6598,7 +6702,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -6628,7 +6732,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -6658,7 +6762,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -6688,7 +6792,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -6718,7 +6822,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -6748,7 +6852,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -6778,7 +6882,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -6808,7 +6912,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -6838,7 +6942,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr"/>
@@ -6852,7 +6956,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -6882,7 +6986,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -6912,7 +7016,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -6942,7 +7046,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -6972,7 +7076,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -7002,7 +7106,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -7032,7 +7136,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -7062,7 +7166,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -7092,7 +7196,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -7122,7 +7226,7 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -7152,7 +7256,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -7182,7 +7286,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
@@ -7196,7 +7300,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -7226,7 +7330,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -7256,7 +7360,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -7286,7 +7390,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -7316,7 +7420,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -7346,7 +7450,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -7376,7 +7480,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -7406,7 +7510,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -7436,7 +7540,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -7466,12 +7570,28 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2010</v>
-      </c>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
+        <v>2011</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7480,7 +7600,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -7510,7 +7630,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -7540,7 +7660,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -7570,7 +7690,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -7600,7 +7720,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -7630,7 +7750,7 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -7660,7 +7780,7 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -7690,7 +7810,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -7720,7 +7840,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -7750,7 +7870,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -7780,7 +7900,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -7810,7 +7930,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr"/>
@@ -7824,7 +7944,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -7854,7 +7974,7 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -7884,7 +8004,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -7914,7 +8034,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -7944,7 +8064,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -7974,7 +8094,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -8004,7 +8124,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -8034,7 +8154,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -8064,7 +8184,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -8094,7 +8214,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -8124,7 +8244,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -8154,7 +8274,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -8184,7 +8304,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -8214,7 +8334,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -8244,7 +8364,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -8274,7 +8394,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -8304,7 +8424,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -8334,7 +8454,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -8364,7 +8484,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -8394,7 +8514,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -8424,7 +8544,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -8454,7 +8574,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr"/>
@@ -8468,7 +8588,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -8498,7 +8618,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -8528,7 +8648,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -8558,7 +8678,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -8588,7 +8708,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -8618,7 +8738,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -8648,7 +8768,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -8678,7 +8798,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -8708,7 +8828,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -8738,7 +8858,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -8768,7 +8888,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -8798,7 +8918,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -8828,7 +8948,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -8858,7 +8978,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -8888,7 +9008,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -8918,7 +9038,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -8948,7 +9068,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -8978,7 +9098,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -9008,7 +9128,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -9038,7 +9158,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -9068,7 +9188,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -9098,12 +9218,28 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>2012</v>
-      </c>
-      <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr"/>
-      <c r="E305" t="inlineStr"/>
-      <c r="F305" t="inlineStr"/>
+        <v>2013</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -9112,7 +9248,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -9142,7 +9278,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -9172,7 +9308,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -9202,7 +9338,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -9232,7 +9368,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -9262,7 +9398,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -9292,7 +9428,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -9322,7 +9458,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -9352,7 +9488,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -9382,7 +9518,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -9412,7 +9548,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -9442,7 +9578,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -9472,7 +9608,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -9502,7 +9638,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -9532,7 +9668,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -9562,7 +9698,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -9592,7 +9728,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -9622,7 +9758,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -9652,7 +9788,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -9682,7 +9818,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -9712,7 +9848,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -9742,7 +9878,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -9772,7 +9908,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -9802,7 +9938,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -9832,7 +9968,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -9862,7 +9998,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -9892,7 +10028,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -9922,7 +10058,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -9952,7 +10088,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -9982,7 +10118,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -10012,7 +10148,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -10042,7 +10178,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -10072,7 +10208,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -10102,7 +10238,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -10132,7 +10268,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -10162,7 +10298,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -10192,7 +10328,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -10222,7 +10358,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -10252,7 +10388,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -10282,7 +10418,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -10312,7 +10448,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -10342,7 +10478,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -10372,7 +10508,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -10402,7 +10538,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -10432,7 +10568,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -10462,7 +10598,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -10492,7 +10628,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -10522,7 +10658,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -10552,7 +10688,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -10582,7 +10718,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -10612,7 +10748,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -10642,7 +10778,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -10672,7 +10808,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -10702,7 +10838,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -10732,7 +10868,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -10762,7 +10898,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -10792,7 +10928,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -10822,7 +10958,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -10852,7 +10988,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -10882,28 +11018,12 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2016</v>
+      </c>
+      <c r="C365" t="inlineStr"/>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10912,7 +11032,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -10942,7 +11062,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -10972,7 +11092,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -11002,7 +11122,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -11032,7 +11152,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -11062,7 +11182,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -11092,7 +11212,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -11122,7 +11242,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -11152,7 +11272,7 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -11182,7 +11302,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -11212,7 +11332,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -11242,7 +11362,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -11272,7 +11392,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -11302,7 +11422,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -11332,7 +11452,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -11362,7 +11482,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -11392,7 +11512,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -11422,7 +11542,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -11452,7 +11572,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -11482,7 +11602,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -11512,7 +11632,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -11542,7 +11662,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C387" t="inlineStr"/>
       <c r="D387" t="inlineStr"/>
@@ -11556,7 +11676,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -11586,7 +11706,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -11616,7 +11736,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -11646,7 +11766,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -11676,7 +11796,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -11706,7 +11826,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -11736,7 +11856,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -11766,7 +11886,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -11796,7 +11916,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -11826,7 +11946,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -11856,7 +11976,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -11886,7 +12006,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -11916,7 +12036,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -11946,7 +12066,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -11976,7 +12096,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -12006,7 +12126,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -12036,7 +12156,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -12066,7 +12186,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -12096,7 +12216,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -12126,7 +12246,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -12156,7 +12276,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -12186,7 +12306,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr"/>
@@ -12200,7 +12320,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -12230,7 +12350,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -12260,7 +12380,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -12290,7 +12410,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -12320,7 +12440,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -12350,7 +12470,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -12380,28 +12500,12 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E416" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -12410,7 +12514,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -12440,7 +12544,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -12470,7 +12574,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -12500,7 +12604,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -12530,7 +12634,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -12560,7 +12664,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -12590,28 +12694,12 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E423" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="inlineStr"/>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -12620,7 +12708,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -12650,7 +12738,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -12680,7 +12768,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -12710,7 +12798,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -12740,7 +12828,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -12770,28 +12858,12 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E429" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F429" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -12800,7 +12872,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -12830,7 +12902,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C431" t="inlineStr"/>
       <c r="D431" t="inlineStr"/>
@@ -12844,7 +12916,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -12874,7 +12946,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -12904,7 +12976,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -12934,7 +13006,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -12964,7 +13036,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -12994,7 +13066,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -13024,7 +13096,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C438" t="inlineStr"/>
       <c r="D438" t="inlineStr"/>
@@ -13038,7 +13110,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -13068,7 +13140,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -13098,7 +13170,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -13128,28 +13200,12 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -13158,28 +13214,12 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D443" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E443" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -13188,28 +13228,12 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E444" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -13218,7 +13242,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C445" t="inlineStr"/>
       <c r="D445" t="inlineStr"/>
@@ -13232,28 +13256,12 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D446" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E446" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C446" t="inlineStr"/>
+      <c r="D446" t="inlineStr"/>
+      <c r="E446" t="inlineStr"/>
+      <c r="F446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -13262,28 +13270,12 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D447" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E447" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C447" t="inlineStr"/>
+      <c r="D447" t="inlineStr"/>
+      <c r="E447" t="inlineStr"/>
+      <c r="F447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -13292,28 +13284,12 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -13322,28 +13298,12 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D449" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -13352,28 +13312,12 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D450" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E450" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -13382,7 +13326,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr"/>
@@ -13396,28 +13340,12 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C452" t="inlineStr"/>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -13426,7 +13354,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C453" t="inlineStr"/>
       <c r="D453" t="inlineStr"/>
@@ -13440,28 +13368,12 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D454" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -13470,28 +13382,12 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D455" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="inlineStr"/>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -13500,28 +13396,12 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D456" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -13530,28 +13410,12 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D457" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C457" t="inlineStr"/>
+      <c r="D457" t="inlineStr"/>
+      <c r="E457" t="inlineStr"/>
+      <c r="F457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -13560,28 +13424,12 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D458" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C458" t="inlineStr"/>
+      <c r="D458" t="inlineStr"/>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -13590,28 +13438,12 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D459" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -13620,7 +13452,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr"/>
@@ -13634,28 +13466,12 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -13664,28 +13480,12 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F462" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>2020</v>
+      </c>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -13694,336 +13494,12 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F463" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>Argentina</t>
-        </is>
-      </c>
-      <c r="B464" t="n">
         <v>2020</v>
       </c>
-      <c r="C464" t="inlineStr"/>
-      <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr"/>
-      <c r="F464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>Barbados</t>
-        </is>
-      </c>
-      <c r="B465" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C465" t="inlineStr"/>
-      <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
-      <c r="F465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>Bolivia</t>
-        </is>
-      </c>
-      <c r="B466" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C466" t="inlineStr"/>
-      <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr"/>
-      <c r="F466" t="inlineStr"/>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
-      </c>
-      <c r="B467" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C467" t="inlineStr"/>
-      <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr"/>
-      <c r="F467" t="inlineStr"/>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="B468" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C468" t="inlineStr"/>
-      <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr"/>
-      <c r="F468" t="inlineStr"/>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="B469" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C469" t="inlineStr"/>
-      <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr"/>
-      <c r="F469" t="inlineStr"/>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="B470" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C470" t="inlineStr"/>
-      <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr"/>
-      <c r="F470" t="inlineStr"/>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>Dominican Republic</t>
-        </is>
-      </c>
-      <c r="B471" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C471" t="inlineStr"/>
-      <c r="D471" t="inlineStr"/>
-      <c r="E471" t="inlineStr"/>
-      <c r="F471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>Ecuador</t>
-        </is>
-      </c>
-      <c r="B472" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C472" t="inlineStr"/>
-      <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr"/>
-      <c r="F472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>El Salvador</t>
-        </is>
-      </c>
-      <c r="B473" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C473" t="inlineStr"/>
-      <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr"/>
-      <c r="F473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
-      </c>
-      <c r="B474" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C474" t="inlineStr"/>
-      <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr"/>
-      <c r="F474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>Haiti</t>
-        </is>
-      </c>
-      <c r="B475" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C475" t="inlineStr"/>
-      <c r="D475" t="inlineStr"/>
-      <c r="E475" t="inlineStr"/>
-      <c r="F475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="B476" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C476" t="inlineStr"/>
-      <c r="D476" t="inlineStr"/>
-      <c r="E476" t="inlineStr"/>
-      <c r="F476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Jamaica</t>
-        </is>
-      </c>
-      <c r="B477" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C477" t="inlineStr"/>
-      <c r="D477" t="inlineStr"/>
-      <c r="E477" t="inlineStr"/>
-      <c r="F477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="B478" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C478" t="inlineStr"/>
-      <c r="D478" t="inlineStr"/>
-      <c r="E478" t="inlineStr"/>
-      <c r="F478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
-      </c>
-      <c r="B479" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C479" t="inlineStr"/>
-      <c r="D479" t="inlineStr"/>
-      <c r="E479" t="inlineStr"/>
-      <c r="F479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="B480" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C480" t="inlineStr"/>
-      <c r="D480" t="inlineStr"/>
-      <c r="E480" t="inlineStr"/>
-      <c r="F480" t="inlineStr"/>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="B481" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C481" t="inlineStr"/>
-      <c r="D481" t="inlineStr"/>
-      <c r="E481" t="inlineStr"/>
-      <c r="F481" t="inlineStr"/>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
-      </c>
-      <c r="B482" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C482" t="inlineStr"/>
-      <c r="D482" t="inlineStr"/>
-      <c r="E482" t="inlineStr"/>
-      <c r="F482" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>Trinidad y Tobago</t>
-        </is>
-      </c>
-      <c r="B483" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C483" t="inlineStr"/>
-      <c r="D483" t="inlineStr"/>
-      <c r="E483" t="inlineStr"/>
-      <c r="F483" t="inlineStr"/>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="B484" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C484" t="inlineStr"/>
-      <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr"/>
-      <c r="F484" t="inlineStr"/>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>Venezuela</t>
-        </is>
-      </c>
-      <c r="B485" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C485" t="inlineStr"/>
-      <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr"/>
-      <c r="F485" t="inlineStr"/>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
